--- a/data/income_statement/2digits/size/96_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/96_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>96-Other personal service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>96-Other personal service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>132787.91744</v>
+        <v>115073.00338</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>161559.94219</v>
+        <v>153906.74152</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>250189.9159</v>
+        <v>233366.00759</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>228359.35635</v>
+        <v>201406.66469</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>248796.77667</v>
+        <v>240590.51304</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>272171.7523</v>
+        <v>254637.31792</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>351287.8469</v>
+        <v>362851.85855</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>314226.40473</v>
+        <v>284735.54795</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>456233.93437</v>
+        <v>442671.16679</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>451135.67327</v>
+        <v>448488.58712</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>629498.84211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>634948.68071</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>317076.627</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>123583.55718</v>
+        <v>108822.53931</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>152273.59446</v>
+        <v>145736.39883</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>230243.60329</v>
+        <v>216542.11148</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>208864.04581</v>
+        <v>182161.60683</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>234240.73329</v>
+        <v>229123.44562</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>257217.69894</v>
+        <v>241723.77445</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>327144.34642</v>
+        <v>340952.20356</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>289488.85642</v>
+        <v>265322.73616</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>417541.91343</v>
+        <v>411846.90303</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>399650.40271</v>
+        <v>398063.31169</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>591739.49206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>595702.4311</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>268736.111</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>117.69984</v>
+        <v>0</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>942.29579</v>
@@ -1049,139 +965,159 @@
         <v>0</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>735.69462</v>
+        <v>235.6</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>11567.9355</v>
+        <v>6202.972870000001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>18347.49803</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1379.49267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4289.03373</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>24930.01</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9086.66042</v>
+        <v>6250.46407</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8344.051940000001</v>
+        <v>7228.0469</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13059.56478</v>
+        <v>9937.148279999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12323.29503</v>
+        <v>12073.04235</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12913.7556</v>
+        <v>9824.779640000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>14166.7066</v>
+        <v>12126.19671</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>24143.50048</v>
+        <v>21899.65499</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>24001.85369</v>
+        <v>19177.21179</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>27124.08544</v>
+        <v>24621.29089</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>33137.77253</v>
+        <v>32077.7774</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>36379.85738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34957.21588</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23410.506</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1002.10819</v>
+        <v>935.2629499999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1103.53459</v>
+        <v>1069.72839</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2212.40234</v>
+        <v>2196.25854</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2166.28364</v>
+        <v>1033.64417</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8301.309719999999</v>
+        <v>7324.028240000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>913.91006</v>
+        <v>878.89562</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1604.52671</v>
+        <v>1401.90157</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>631.2165699999999</v>
+        <v>463.57563</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2778.62045</v>
+        <v>3144.30728</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1946.44638</v>
+        <v>2769.61233</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2171.46165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2234.4077</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2044.773</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>295.54355</v>
+        <v>230.96603</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>413.55743</v>
+        <v>379.75123</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>931.6621600000001</v>
+        <v>925.34822</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1240.23047</v>
+        <v>444.13638</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7490.39237</v>
+        <v>6549.61767</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>684.85785</v>
+        <v>655.7498499999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1355.01458</v>
+        <v>1152.81518</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>306.08016</v>
+        <v>142.04114</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1972.7493</v>
+        <v>2227.80148</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1131.94317</v>
+        <v>1955.10912</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1456.35256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1488.38528</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>678.189</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>181.96783</v>
@@ -1190,40 +1126,45 @@
         <v>284.94088</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1138.23059</v>
+        <v>1128.40073</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>784.44254</v>
+        <v>447.89716</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>673.64261</v>
+        <v>640.94476</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>173.48588</v>
+        <v>168.26588</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>183.24236</v>
+        <v>182.81662</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>170.36419</v>
+        <v>169.90588</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>643.21899</v>
+        <v>753.85364</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>685.54965</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>419.97984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>431.04775</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8.044</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>524.59681</v>
+        <v>522.3290900000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>405.03628</v>
@@ -1235,16 +1176,16 @@
         <v>141.61063</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>137.27474</v>
+        <v>133.46581</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>55.56633</v>
+        <v>54.87989</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>66.26977000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>154.77222</v>
+        <v>151.62861</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>162.65216</v>
@@ -1253,94 +1194,109 @@
         <v>128.95356</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>295.12925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>314.97467</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1358.54</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>131785.80925</v>
+        <v>114137.74043</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>160456.4076</v>
+        <v>152837.01313</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>247977.51356</v>
+        <v>231169.74905</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>226193.07271</v>
+        <v>200373.02052</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>240495.46695</v>
+        <v>233266.4848</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>271257.84224</v>
+        <v>253758.4223</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>349683.32019</v>
+        <v>361449.95698</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>313595.18816</v>
+        <v>284271.97232</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>453455.31392</v>
+        <v>439526.85951</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>449189.22689</v>
+        <v>445718.97479</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>627327.38046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>632714.27301</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>315031.854</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>101711.94597</v>
+        <v>91262.39551</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>127063.82721</v>
+        <v>123900.8818</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>207025.69566</v>
+        <v>196643.46522</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>194693.44059</v>
+        <v>169980.13612</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>198211.59343</v>
+        <v>192685.17037</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>215883.09122</v>
+        <v>201075.23187</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>284251.69444</v>
+        <v>284367.5853</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>255559.68373</v>
+        <v>233469.59629</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>342034.82808</v>
+        <v>329908.0154</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>375018.15766</v>
+        <v>373036.78031</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>511980.01838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>518143.48983</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>258072.562</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1660.94306</v>
+        <v>1586.06539</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>2104.40887</v>
@@ -1349,124 +1305,139 @@
         <v>23541.99499</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>23149.93301</v>
+        <v>22911.3257</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13758.04644</v>
+        <v>12852.96117</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>15241.11417</v>
+        <v>13443.56343</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11554.64648</v>
+        <v>30601.78972</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9838.504859999999</v>
+        <v>3456.9549</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>19366.58858</v>
+        <v>11715.00861</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7089.52999</v>
+        <v>2895.07923</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13374.72075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13252.41787</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2265.701</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>11161.42654</v>
+        <v>10522.55358</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>11538.43194</v>
+        <v>11278.81602</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>15756.85403</v>
+        <v>14307.10184</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>29379.82743</v>
+        <v>18530.13259</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>33214.14494</v>
+        <v>33563.74868</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>23592.63397</v>
+        <v>19748.60399</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>33739.42764</v>
+        <v>32608.2491</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>24272.33695</v>
+        <v>22404.50313</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>73581.35514</v>
+        <v>74750.82817000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>47409.4609</v>
+        <v>47804.51334</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>66911.78627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>71801.41768000001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>33146.014</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>88878.07637000001</v>
+        <v>79153.77654000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>113129.5864</v>
+        <v>110226.25691</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>166591.69385</v>
+        <v>157670.11214</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>142124.35678</v>
+        <v>128502.95452</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>151221.50205</v>
+        <v>146250.56052</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>176959.11316</v>
+        <v>167792.83453</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>238631.27284</v>
+        <v>220831.199</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>219525.27452</v>
+        <v>207446.94686</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>249030.78001</v>
+        <v>243386.07427</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>320232.5615</v>
+        <v>322050.58247</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>421864.76214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>423260.90506</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>221899.792</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>291.4</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1135.15279</v>
+        <v>1124.25625</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>39.32337</v>
+        <v>35.72331</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>17.9</v>
@@ -1478,7 +1449,7 @@
         <v>326.34748</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1923.5674</v>
+        <v>161.1914</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>56.10435</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>9828.749220000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>761.0549999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>30073.86328</v>
+        <v>22875.34492</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>33392.58039</v>
+        <v>28936.13133</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>40951.8179</v>
+        <v>34526.28383</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>31499.63212</v>
+        <v>30392.8844</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>42283.87352</v>
+        <v>40581.31443</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>55374.75102</v>
+        <v>52683.19043</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>65431.62575</v>
+        <v>77082.37168000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>58035.50443</v>
+        <v>50802.37603</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>111420.48584</v>
+        <v>109618.84411</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>74171.06923000001</v>
+        <v>72682.19448000001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>115347.36208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>114570.78318</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>56959.292</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>22484.44805</v>
+        <v>18165.59159</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>25832.58238</v>
+        <v>22454.10407</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>39723.04527</v>
+        <v>31292.06211</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>41284.5671</v>
+        <v>35876.48681</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>42705.40401</v>
+        <v>40006.39240999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>53375.60086</v>
+        <v>58369.6564</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>57715.37285</v>
+        <v>79754.1878</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>60483.52044</v>
+        <v>48022.18883</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>63820.94582</v>
+        <v>64673.84174</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>65477.03739</v>
+        <v>73779.33931</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>90800.24252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>90035.09395000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>51799.803</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2029.35004</v>
+        <v>1547.62623</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2603.95054</v>
+        <v>2278.48561</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5707.96886</v>
+        <v>5009.515469999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7229.34361</v>
+        <v>5792.09287</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5526.17449</v>
+        <v>5079.29057</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10490.51325</v>
+        <v>14264.96964</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8907.997890000001</v>
+        <v>27682.29629</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7295.94804</v>
+        <v>6085.72856</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>10312.14706</v>
+        <v>10807.73306</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>7789.92931</v>
+        <v>13436.99868</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>8117.56338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8117.40092</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3530.038</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>20455.09801</v>
+        <v>16617.96536</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>23228.63184</v>
+        <v>20175.61846</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>34015.07640999999</v>
+        <v>26282.54664</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>33828.27824</v>
+        <v>29857.44869</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>37179.22952</v>
+        <v>34927.10184</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>42885.08761</v>
+        <v>44104.68676</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>48807.37496</v>
+        <v>52071.89151</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>53187.5724</v>
+        <v>41936.46027</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>53508.79876</v>
+        <v>53866.10868</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>57687.10808</v>
+        <v>60342.34063000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>82682.67914000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>81917.69302999999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>48269.765</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7589.415230000001</v>
+        <v>4709.75333</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7559.998009999999</v>
+        <v>6482.02726</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1228.77263</v>
+        <v>3234.22172</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-9784.93498</v>
+        <v>-5483.60241</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-421.53049</v>
+        <v>574.92202</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1999.15016</v>
+        <v>-5686.465969999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7716.2529</v>
+        <v>-2671.81612</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2448.01601</v>
+        <v>2780.1872</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>47599.54002</v>
+        <v>44945.00236999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8694.03184</v>
+        <v>-1097.14483</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>24547.11956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24535.68923</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5159.489</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4388.96404</v>
+        <v>2915.22068</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>6010.10622</v>
+        <v>5530.999059999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5454.107019999999</v>
+        <v>4132.37441</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7122.37602</v>
+        <v>5281.64411</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5068.51566</v>
+        <v>4446.3133</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6090.57348</v>
+        <v>5949.28312</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13362.90786</v>
+        <v>10757.19296</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11270.67362</v>
+        <v>8742.60707</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>14078.25943</v>
+        <v>12816.35865</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24167.30595</v>
+        <v>20307.7528</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>34468.56327000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21241.39594</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>23196.751</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>241.8091</v>
@@ -1775,7 +1786,7 @@
         <v>268.27905</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>33.7775</v>
+        <v>13.57251</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
@@ -1787,7 +1798,7 @@
         <v>229.80875</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>153.5456</v>
+        <v>45.79221</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>32.35308</v>
@@ -1799,16 +1810,21 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>15.11402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>564.22124</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>625.9844499999999</v>
@@ -1823,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>343.09734</v>
+        <v>186.83657</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1701.92102</v>
+        <v>142.24211</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>603.16032</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>481.03429</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>746.22653</v>
+        <v>425.48135</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>635.4638299999999</v>
+        <v>518.18781</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>633.8181</v>
+        <v>376.51761</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>684.59979</v>
+        <v>319.82533</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>197.57216</v>
+        <v>187.714</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>196.06275</v>
+        <v>855.6790699999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1231.56373</v>
+        <v>1171.28396</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1577.4021</v>
+        <v>1474.2065</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2589.52112</v>
+        <v>2348.3068</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4031.08072</v>
+        <v>2631.16808</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5324.14301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3838.53772</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4004.692</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>110.59321</v>
@@ -1910,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>169.5</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1946,10 +1977,10 @@
         <v>95.00214</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>198.06957</v>
+        <v>50</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>81.87651</v>
+        <v>53</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>50</v>
@@ -1957,35 +1988,40 @@
       <c r="M30" s="48" t="n">
         <v>298.20282</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.90076</v>
+        <v>0.83935</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>24.58242</v>
+        <v>20.39628</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8.908250000000001</v>
+        <v>0.96692</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3.28163</v>
+        <v>0</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>42.27825</v>
+        <v>41.84598</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>36.51518</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>32.04324</v>
+        <v>9.293239999999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>0.005160000000000001</v>
@@ -1994,52 +2030,62 @@
         <v>64.47012000000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10738.56678</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>166.42296</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>48.497</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>860.41784</v>
+        <v>782.95151</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3191.88179</v>
+        <v>2830.1615</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2256.60681</v>
+        <v>1780.8234</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3010.23892</v>
+        <v>2472.21925</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1242.34518</v>
+        <v>1046.89625</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3075.77477</v>
+        <v>2673.37113</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6500.250559999999</v>
+        <v>5713.69894</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2824.49053</v>
+        <v>1777.3958</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2963.5835</v>
+        <v>2306.91404</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11940.03607</v>
+        <v>9375.480539999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4999.63742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3845.33322</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6361.972</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,104 +2164,119 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1865.69612</v>
+        <v>1354.38551</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1201.18982</v>
+        <v>1201.14038</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2370.7543</v>
+        <v>1806.49672</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3407.89866</v>
+        <v>2477.90221</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2312.09582</v>
+        <v>1898.48218</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2155.2752</v>
+        <v>1913.4652</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3420.72344</v>
+        <v>3329.27223</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6003.15478</v>
+        <v>4796.19813</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7547.20785</v>
+        <v>7381.56736</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7889.66029</v>
+        <v>7994.575309999999</v>
       </c>
       <c r="M35" s="48" t="n">
         <v>12611.86493</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>12731.59</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1763.73531</v>
+        <v>1171.96664</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3571.87723</v>
+        <v>3447.94308</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8724.039369999999</v>
+        <v>6223.98316</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2152.28928</v>
+        <v>1810.3401</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5801.166429999999</v>
+        <v>3887.30451</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3571.97911</v>
+        <v>3250.36325</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>14879.15849</v>
+        <v>11898.24597</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10517.42696</v>
+        <v>7464.71293</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>12568.17493</v>
+        <v>9725.722529999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>21795.76221</v>
+        <v>17550.46875</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9342.845090000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8048.026900000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10556.534</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>74.55739</v>
+        <v>31.5374</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>65.49969999999999</v>
+        <v>27.02565</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>30.48093</v>
+        <v>28.60893</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>116.76112</v>
+        <v>33.33386</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>117.36771</v>
+        <v>60.02759</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>151.24714</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>217.74092</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>81.989</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6.26293</v>
+        <v>0</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1098.28466</v>
+        <v>1074.91197</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>0</v>
@@ -2258,10 +2329,10 @@
         <v>875.8700799999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>392.14285</v>
+        <v>243.3296</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1188.52844</v>
+        <v>1076.78895</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>633.50119</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3.67427</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>377.973</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>56.5733</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1113.09397</v>
+        <v>914.9947</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2139.78672</v>
+        <v>2077.69998</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7298.49472</v>
+        <v>4800.310509999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1380.35879</v>
+        <v>1123.33687</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5253.41373</v>
+        <v>3410.46641</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2451.91479</v>
+        <v>2194.03488</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11350.1502</v>
+        <v>8344.13559</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6040.918259999999</v>
+        <v>4434.98182</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7502.15722</v>
+        <v>5285.19054</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>19110.74129</v>
+        <v>14865.44783</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6631.47352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5326.46156</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6402.995</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>569.82102</v>
+        <v>225.43454</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>268.30615</v>
+        <v>268.30548</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>1395.06372</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>619.05273</v>
+        <v>617.55273</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>411.48426</v>
+        <v>397.90978</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>429.96266</v>
+        <v>366.22671</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2367.12097</v>
+        <v>2392.22306</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3713.3325</v>
+        <v>2415.36816</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3842.89716</v>
+        <v>3329.15093</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>1958.10065</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2433.38308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2443.57685</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3693.577</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4491.29917</v>
+        <v>2732.38372</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4532.47973</v>
+        <v>3616.93112</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8545.407220000001</v>
+        <v>6891.98297</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7870.35019</v>
+        <v>6622.99738</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7209.19253</v>
+        <v>6383.24889</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8053.67635</v>
+        <v>7593.37388</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13535.67505</v>
+        <v>11938.35139</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>20470.64606</v>
+        <v>12995.73978</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>18610.62662</v>
+        <v>15363.28403</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>22264.29983</v>
+        <v>21350.33285</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>31851.49059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>30183.01393</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>20123.631</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4491.29917</v>
+        <v>2732.38372</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4531.71605</v>
+        <v>3616.16744</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8545.407220000001</v>
+        <v>6891.98297</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7865.81766</v>
+        <v>6618.464849999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7209.19253</v>
+        <v>6383.24889</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8053.67635</v>
+        <v>7593.37388</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>13378.72781</v>
+        <v>11781.40415</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>18368.50674</v>
+        <v>12995.73978</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>15357.75326</v>
+        <v>12110.78697</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>19285.09218</v>
+        <v>18371.1252</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>31830.49059</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>30162.01393</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>19812.456</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2570,10 +2681,10 @@
         <v>156.94724</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2102.13932</v>
+        <v>0</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3252.87336</v>
+        <v>3252.49706</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>2979.20765</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>311.175</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5723.34479</v>
+        <v>3720.62365</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5465.74727</v>
+        <v>4948.15212</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-10586.56694</v>
+        <v>-5749.37</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-12685.19843</v>
+        <v>-8635.295779999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-8363.37379</v>
+        <v>-5249.31808</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3535.93182</v>
+        <v>-10580.91998</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-7335.67278</v>
+        <v>-15751.22052</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-22165.41541</v>
+        <v>-8937.658439999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>30498.9979</v>
+        <v>32672.35446</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-11198.72425</v>
+        <v>-19690.19363</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17821.34715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7546.044339999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2323.925</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>929.1507800000001</v>
+        <v>231.97123</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1048.46238</v>
+        <v>912.73847</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3980.10265</v>
+        <v>2856.51709</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2852.74136</v>
+        <v>1523.22016</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2331.41835</v>
+        <v>1398.84028</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5485.395280000001</v>
+        <v>4568.14563</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10328.87394</v>
+        <v>7936.2896</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>13199.77373</v>
+        <v>4166.57209</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>10427.2945</v>
+        <v>10129.73597</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6291.16283</v>
+        <v>6277.53368</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>8368.37888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8237.777840000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>17691.832</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.88789</v>
@@ -2678,16 +2804,16 @@
         <v>905.1133000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>14.72308</v>
+        <v>54.66005999999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>19.14436</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.08501</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1.04971</v>
@@ -2696,94 +2822,109 @@
         <v>56.41696</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1.49437</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>106.554</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>928.26289</v>
+        <v>231.08334</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1022.32249</v>
+        <v>886.59858</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3970.40823</v>
+        <v>2846.82267</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1947.62806</v>
+        <v>618.10686</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2316.69527</v>
+        <v>1344.18022</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5485.395280000001</v>
+        <v>4567.64563</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10309.72958</v>
+        <v>7917.14524</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>13199.68872</v>
+        <v>4166.57209</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>10426.24479</v>
+        <v>10128.68626</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6234.74587</v>
+        <v>6221.11672</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8368.37888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8236.28347</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>17585.278</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1437.43103</v>
+        <v>847.08451</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2329.50054</v>
+        <v>2285.41473</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>18821.98891</v>
+        <v>17960.19493</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2840.45713</v>
+        <v>1449.9837</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3341.79846</v>
+        <v>3216.87469</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>6435.44094</v>
+        <v>6839.6219</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5365.71742</v>
+        <v>4160.17937</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5377.25615</v>
+        <v>4760.322990000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4831.47672</v>
+        <v>4791.82425</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7100.6124</v>
+        <v>7074.41702</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3797.55253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3770.20415</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1869.777</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>32.5197</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>34.81501</v>
@@ -2801,7 +2942,7 @@
         <v>37.5</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>44.63123</v>
+        <v>405.77073</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>124.4502</v>
@@ -2815,35 +2956,40 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>46.645</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2.9695</v>
+        <v>2.24653</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>61.3168</v>
+        <v>61.31419</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>338.97609</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>958.0324000000001</v>
+        <v>87.45367</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1537.286</v>
+        <v>1515.29942</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>166.28112</v>
+        <v>166.27617</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>147.73632</v>
+        <v>182.09365</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>52.27136</v>
+        <v>47.99209</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>94.20478</v>
@@ -2852,166 +2998,189 @@
         <v>445.91598</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>34.09015</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>35.01975</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>86.021</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1401.94183</v>
+        <v>844.83798</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2233.36873</v>
+        <v>2189.28553</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>18454.11896</v>
+        <v>17592.32498</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1882.42473</v>
+        <v>1362.53003</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1619.51246</v>
+        <v>1516.57527</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6231.65982</v>
+        <v>6635.84573</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5173.34987</v>
+        <v>3572.31499</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5200.53459</v>
+        <v>4587.880700000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4737.271940000001</v>
+        <v>4697.61947</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>6505.59642</v>
+        <v>6479.40104</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3763.46238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3735.1844</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1737.111</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5215.06454</v>
+        <v>3105.51037</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4184.70911</v>
+        <v>3575.47586</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-25428.4532</v>
+        <v>-20853.04784</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-12672.9142</v>
+        <v>-8562.05932</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-9373.7539</v>
+        <v>-7067.35249</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4485.97748</v>
+        <v>-12852.39625</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2372.51626</v>
+        <v>-11975.11029</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-14342.89783</v>
+        <v>-9531.40934</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>36094.81568</v>
+        <v>38010.26618</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-12008.17382</v>
+        <v>-20487.07697</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>22392.1735</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>12013.61803</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>13498.13</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1600.90571</v>
+        <v>975.35901</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1793.65107</v>
+        <v>1480.06646</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1871.5114</v>
+        <v>1271.18189</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1699.69318</v>
+        <v>983.9147399999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>807.72998</v>
+        <v>767.0540100000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1738.7758</v>
+        <v>1683.8344</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3048.28835</v>
+        <v>2726.10038</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4454.48988</v>
+        <v>3977.3399</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6418.452780000001</v>
+        <v>6210.08341</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3705.82911</v>
+        <v>3421.55225</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6487.65759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6016.537480000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1504.44</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3614.15883</v>
+        <v>2130.15136</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2391.05804</v>
+        <v>2095.4094</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-27299.9646</v>
+        <v>-22124.22973</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-14372.60738</v>
+        <v>-9545.97406</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-10181.48388</v>
+        <v>-7834.4065</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-6224.75328</v>
+        <v>-14536.23065</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5420.80461</v>
+        <v>-14701.21067</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-18797.38771</v>
+        <v>-13508.74924</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>29676.3629</v>
+        <v>31800.18277</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-15714.00293</v>
+        <v>-23908.62922</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15904.51591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5997.08055</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11993.69</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>47</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>51</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>61</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>48</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>60</v>
-      </c>
-      <c r="D59" s="35" t="n">
+      <c r="H59" s="35" t="n">
+        <v>54</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>66</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>58</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>61</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>73</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>65</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>63</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>66</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>76</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>74</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>76</v>
       </c>
       <c r="L59" s="35" t="n">
         <v>59</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>65</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>